--- a/biology/Botanique/Evgueni_Korovine/Evgueni_Korovine.xlsx
+++ b/biology/Botanique/Evgueni_Korovine/Evgueni_Korovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evgueni Petrovitch Korovine (en russe : Евге́ний Петро́вич Коро́вин), né le 13 février 1891 (25 février dans le calendrier grégorien) à Moscou et mort le 1er décembre 1963 à Moscou, est un botaniste soviétique qui se spécialisa dans la flore d'Asie centrale et du Pamir.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Evgueni Korovine termine l'université de Moscou en 1917, année de la révolution russe. Il travaille à partir de 1920 à Tachkent et fait partie de ceux qui mettent sur pied l'université de Tachkent, dénommée à l'époque université d'Asie centrale. Il en devient professeur en 1932. Il collabore avec Alexeï Vvedenski. Il eut parmi ses élèves Armen Azatian. De 1943 à 1948, il est directeur de l'institut de botanique et de zoologie de l'académie des sciences de la RSS d'Ouzbékistan et de 1950 à 1952, directeur de l'institut de botanique de l'académie des sciences de la RSS d'Ouzbékistan. Il devient académicien de l'académie des sciences de la RSS d'Ouzbékistan en 1947.
 Korovine s'intéresse avant tout à la flore d'Asie centrale. Il en décrit plus d'une centaine de nouvelles espèces et huit genres des familles des ombellifères, des chénopodes, des sarrasins, etc. Il en dessine les cartes tant géologiques que géographiques. Il s'intéresse également aux questions agricoles de ces régions arides.
@@ -544,13 +558,15 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en collaboration avec Ivan Spryguine, M.V. Koultiassov et Mikhaïl Popov) Descriptiones plantarum novarum in Turkestania lectarum., 1916, I 94 pp.
 (ru) Le Genre Scaligeria D.C. (Umbelliferae) et sa philogenèse: expérience d'application de l'écologie à la philogénie de petits groupes taxonomiques, 1928, 92 pp.
 (ru) (en collaboration avec D.N. Kachkarov) L'Écologie au service de l'édification du socialisme: son rôle et ses questions, 34 pp. volume 1, in: Troudy Sredneaziatskovo Gossoudarstvennovo Ouniversiteta [Travaux de l'université d'État d'Asie centrale], série 8c, 1933
 (ru) Associations principales de la végétation de l'est du Betpak-Dala et sa distribution en relation avec le sol, 27 pages, 1935; traduction en (fr) de Théodore Monod: La Vie dans les déserts, 1942, Paris
-Generis Ferula (Tourn.) L. monographia illustrata, Ed. Academiae Scientiarum URSS, 1947, 91 pages[1]
+Generis Ferula (Tourn.) L. monographia illustrata, Ed. Academiae Scientiarum URSS, 1947, 91 pages
 (ru) Les Citrus et la culture subtropicale en Ouzbékistan: matériaux méthodico-scientifiques, éd. Akad. Naouk URSS, 1950, 180 pages
 (ru) La Végétation d'Asie centrale et du Kazakhstan méridional, 2e éd., Tachkent, 1961-1962, tome I et tome II</t>
         </is>
@@ -580,23 +596,25 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un certain nombre de plantes ont été dénommées en son honneur:
 Genre
-(Apiaceae) Korovinia Nevski &amp; Vved.[2]
+(Apiaceae) Korovinia Nevski &amp; Vved.
 Espèces
 une centaine dont:
-(Apiaceae) Zosima korovinii Pimenov[3]
-(Asphodelaceae) Henningia korovinii (B.Fedtsch.) Khokkr.[4]
-(Asteraceae) Ajania korovinii Kovalevsk.[5]
-(Brassicaceae) Parrya korovinii A.N.Vassiljeva[6]
-(Chenopodiaceae) Anabasis korovinii Iljin ex A.N.Vassiljeva[7]
-(Lamiaceae) Phlomoides korovinii (Popov) Adylov, Kamelin &amp; Makhm.[8]
-(Leguminosae) Melilotoides korovinii (Vassilczenko) Soják[9]
-(Poaceae) Leymostachys × korovinii Tzvelev[10]
-(Scrophulariaceae) Verbascum korovinii Gritsenko[11]
-(Tamaricaceae) Reaumuria korovinii Botsch. &amp; Lincz.[12]</t>
+(Apiaceae) Zosima korovinii Pimenov
+(Asphodelaceae) Henningia korovinii (B.Fedtsch.) Khokkr.
+(Asteraceae) Ajania korovinii Kovalevsk.
+(Brassicaceae) Parrya korovinii A.N.Vassiljeva
+(Chenopodiaceae) Anabasis korovinii Iljin ex A.N.Vassiljeva
+(Lamiaceae) Phlomoides korovinii (Popov) Adylov, Kamelin &amp; Makhm.
+(Leguminosae) Melilotoides korovinii (Vassilczenko) Soják
+(Poaceae) Leymostachys × korovinii Tzvelev
+(Scrophulariaceae) Verbascum korovinii Gritsenko
+(Tamaricaceae) Reaumuria korovinii Botsch. &amp; Lincz.</t>
         </is>
       </c>
     </row>
